--- a/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
+++ b/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
@@ -375,7 +375,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="str">
-        <f>_xll.flFunc()</f>
+        <f>_xll.clFunc()</f>
         <v>f()</v>
       </c>
     </row>
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>_xll.flAdder("adder", 1)</f>
+        <f>_xll.clAdder("adder", 1)</f>
         <v>adder#0000</v>
       </c>
     </row>
@@ -393,7 +393,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>_xll.flAdderAdd(B2,2)</f>
+        <f>_xll.clAdderAdd(B2,2)</f>
         <v>3</v>
       </c>
     </row>

--- a/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
+++ b/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14355" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>adder:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 + 2 = </t>
-  </si>
-  <si>
-    <t>func:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>coercions</t>
+  </si>
+  <si>
+    <t>conversions</t>
+  </si>
+  <si>
+    <t>enumerated classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current time in New York is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current time in Brussels is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current time in Beijing is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current time in Wazoo is </t>
+  </si>
+  <si>
+    <t>enumerated types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest rate current = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest rate savings = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest rate xyz = </t>
+  </si>
+  <si>
+    <t>functions</t>
+  </si>
+  <si>
+    <t>inheritance</t>
+  </si>
+  <si>
+    <t>Expected error</t>
+  </si>
+  <si>
+    <t>objects</t>
+  </si>
+  <si>
+    <t>overrides</t>
+  </si>
+  <si>
+    <t>typedefs</t>
   </si>
 </sst>
 </file>
@@ -60,9 +102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,37 +405,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>_xll.clShowGrade2(75)</f>
+        <v>grade=F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>_xll.clShowGrade2("90")</f>
+        <v>grade=F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f>_xll.clShowGrade(75)</f>
+        <v>grade=F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>_xll.clShowGrade(75)</f>
+        <v>grade=F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="str">
-        <f>_xll.clFunc()</f>
-        <v>f()</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="e">
+        <f>_xll.clTimeString("EST")</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="e">
+        <f>_xll.clTimeString("UTC")</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="e">
+        <f>_xll.clTimeString("CST")</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="e">
+        <f>_xll.clTimeString("WAZOO")</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f>_xll.clGetInterestRate("Current")</f>
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <f>_xll.clAdder("adder", 1)</f>
-        <v>adder#0000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f>_xll.clAdderAdd(B2,2)</f>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <f>_xll.clGetInterestRate("SAVINGS")</f>
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="e">
+        <f>_xll.clGetInterestRate("xyz")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D16" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C16)</f>
+        <v>clGetInterestRate - Unknown id for Type: xyz</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <f>_xll.clGetInterestRate2("Current2")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <f>_xll.clGetInterestRate2("SAVINGS2")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="e">
+        <f>_xll.clGetInterestRate2("xyz")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D19" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C19)</f>
+        <v>clGetInterestRate2 - Unknown id for Type: xyz</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f>_xll.clFunc1()</f>
+        <v>ComplexLib::func1()</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
+        <f>_xll.clBase("base")</f>
+        <v>base#0000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="e">
+        <f>_xll.clBaseF("base")</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <f>_xll.clDerived("derived")</f>
+        <v>derived#0000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="e">
+        <f>_xll.clBaseF("derived")</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="e">
+        <f>_xll.clDerivedF("derived")</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="e">
+        <f>_xll.clDerivedF("base")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D28" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C28)</f>
+        <v>clDerivedF - Error retrieving object with id 'base' - unable to convert reference to type 'class ComplexLibAddin::Derived' found instead 'class ComplexLibAddin::Base'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <f>_xll.clC("c")</f>
+        <v>c#0000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="str">
+        <f>_xll.clAF0("c")</f>
+        <v>ComplexLib::C::f0()</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f>_xll.clBF1("c")</f>
+        <v>ComplexLib::C::f1()</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="str">
+        <f>_xll.clTest("my_test", 42)</f>
+        <v>my_test#0000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="e">
+        <f>_xll.clTestGetInput("my_test")</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="str">
+        <f>_xll.clTest2("my_test2")</f>
+        <v>my_test2#0000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="e">
+        <f>_xll.clTest2F("my_test2")</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="str">
+        <f>_xll.clDoubleToString(123.456)</f>
+        <v>d=123.456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="str">
+        <f>_xll.clLongDoubleToString(123.456)</f>
+        <v>d=123.456</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
+++ b/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
@@ -441,13 +441,17 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="str">
         <f>_xll.clShowGrade(75)</f>
-        <v>grade=F</v>
+        <v>grade=C</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="str">
-        <f>_xll.clShowGrade(75)</f>
-        <v>grade=F</v>
+      <c r="C6" t="e">
+        <f>_xll.clShowGrade("75")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C6)</f>
+        <v>clShowGrade - unable to convert type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' to type 'ComplexLib::Grade'</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,6 +467,10 @@
         <f>_xll.clTimeString("EST")</f>
         <v>#NUM!</v>
       </c>
+      <c r="D9" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C9)</f>
+        <v>clTimeString - Error retrieving Enumeration from Registry - the type 'class boost::shared_ptr&lt;class ComplexLib::TimeZone&gt;' is not available!</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -472,6 +480,10 @@
         <f>_xll.clTimeString("UTC")</f>
         <v>#NUM!</v>
       </c>
+      <c r="D10" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C10)</f>
+        <v>clTimeString - Error retrieving Enumeration from Registry - the type 'class boost::shared_ptr&lt;class ComplexLib::TimeZone&gt;' is not available!</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -481,6 +493,10 @@
         <f>_xll.clTimeString("CST")</f>
         <v>#NUM!</v>
       </c>
+      <c r="D11" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C11)</f>
+        <v>clTimeString - Error retrieving Enumeration from Registry - the type 'class boost::shared_ptr&lt;class ComplexLib::TimeZone&gt;' is not available!</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -489,6 +505,10 @@
       <c r="C12" t="e">
         <f>_xll.clTimeString("WAZOO")</f>
         <v>#NUM!</v>
+      </c>
+      <c r="D12" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C12)</f>
+        <v>clTimeString - Error retrieving Enumeration from Registry - the type 'class boost::shared_ptr&lt;class ComplexLib::TimeZone&gt;' is not available!</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,7 +634,7 @@
       </c>
       <c r="D28" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(C28)</f>
-        <v>clDerivedF - Error retrieving object with id 'base' - unable to convert reference to type 'class ComplexLibAddin::Derived' found instead 'class ComplexLibAddin::Base'</v>
+        <v>clDerivedF - ObjectHandler error: attempt to retrieve object with unknown ID 'base'</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,9 +650,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="str">
+      <c r="C31" t="e">
         <f>_xll.clBF1("c")</f>
-        <v>ComplexLib::C::f1()</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,9 +667,9 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="e">
+      <c r="C34">
         <f>_xll.clTestGetInput("my_test")</f>
-        <v>#NUM!</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,9 +684,9 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="e">
+      <c r="C37" t="str">
         <f>_xll.clTest2F("my_test2")</f>
-        <v>#NUM!</v>
+        <v>ComplexLib::Test2::f()</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">

--- a/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
+++ b/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,292 +418,288 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="str">
+        <f>_xll.clFunc1()</f>
+        <v>ComplexLib::func1()</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f>_xll.clTest("my_test", 42)</f>
+        <v>my_test#0001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>_xll.clTestGetInput("my_test")</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f>_xll.clBase("base")</f>
+        <v>base#0001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f>_xll.clBaseF("base")</f>
+        <v>ComplexLib::Base::f()</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f>_xll.clDerived("derived")</f>
+        <v>derived#0001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f>_xll.clBaseF("derived")</f>
+        <v>ComplexLib::Derived::f()</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f>_xll.clDerivedF("derived")</f>
+        <v>ComplexLib::Derived::f()</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="e">
+        <f>_xll.clDerivedF("base")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D12" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C12)</f>
+        <v>clDerivedF - Error retrieving object with id 'base' - unable to convert reference to type 'class ComplexLibAddin::Derived' found instead 'class ComplexLibAddin::Base'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f>_xll.clC("c")</f>
+        <v>c#0001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f>_xll.clAF0("c")</f>
+        <v>ComplexLib::C::f0()</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f>_xll.clBF1("c")</f>
+        <v>ComplexLib::C::f1()</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f>_xll.clDoubleToString(123.456)</f>
+        <v>d=123.456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="str">
+        <f>_xll.clLongDoubleToString(123.456)</f>
+        <v>d=123.456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f>_xll.clShowGrade(75)</f>
+        <v>grade=F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f>_xll.clShowGrade("75")</f>
+        <v>grade=F</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
         <f>_xll.clShowGrade2(75)</f>
         <v>grade=F</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="str">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="str">
         <f>_xll.clShowGrade2("90")</f>
         <v>grade=F</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="str">
-        <f>_xll.clShowGrade(75)</f>
-        <v>grade=C</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="e">
-        <f>_xll.clShowGrade("75")</f>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <f>_xll.clGetInterestRate("Current")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <f>_xll.clGetInterestRate("SAVINGS")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="e">
+        <f>_xll.clGetInterestRate("xyz")</f>
         <v>#NUM!</v>
       </c>
-      <c r="D6" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(C6)</f>
-        <v>clShowGrade - unable to convert type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' to type 'ComplexLib::Grade'</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D28" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C28)</f>
+        <v>clGetInterestRate - Unknown id for Type: xyz</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <f>_xll.clGetInterestRate2("Current2")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <f>_xll.clGetInterestRate2("SAVINGS2")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="e">
+        <f>_xll.clGetInterestRate2("xyz")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D31" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C31)</f>
+        <v>clGetInterestRate2 - Unknown id for Type: xyz</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="e">
+      <c r="C33" t="str">
         <f>_xll.clTimeString("EST")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(C9)</f>
-        <v>clTimeString - Error retrieving Enumeration from Registry - the type 'class boost::shared_ptr&lt;class ComplexLib::TimeZone&gt;' is not available!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+        <v>16:22</v>
+      </c>
+      <c r="D33" t="str">
+        <f>_xll.ohRangeRetrieveError(C33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="e">
+      <c r="C34" t="str">
         <f>_xll.clTimeString("UTC")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(C10)</f>
-        <v>clTimeString - Error retrieving Enumeration from Registry - the type 'class boost::shared_ptr&lt;class ComplexLib::TimeZone&gt;' is not available!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+        <v>21:22</v>
+      </c>
+      <c r="D34" t="str">
+        <f>_xll.ohRangeRetrieveError(C34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="e">
+      <c r="C35" t="str">
         <f>_xll.clTimeString("CST")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D11" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(C11)</f>
-        <v>clTimeString - Error retrieving Enumeration from Registry - the type 'class boost::shared_ptr&lt;class ComplexLib::TimeZone&gt;' is not available!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+        <v>05:22</v>
+      </c>
+      <c r="D35" t="str">
+        <f>_xll.ohRangeRetrieveError(C35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="e">
+      <c r="C36" t="e">
         <f>_xll.clTimeString("WAZOO")</f>
         <v>#NUM!</v>
       </c>
-      <c r="D12" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(C12)</f>
-        <v>clTimeString - Error retrieving Enumeration from Registry - the type 'class boost::shared_ptr&lt;class ComplexLib::TimeZone&gt;' is not available!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <f>_xll.clGetInterestRate("Current")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <f>_xll.clGetInterestRate("SAVINGS")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="e">
-        <f>_xll.clGetInterestRate("xyz")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D16" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(C16)</f>
-        <v>clGetInterestRate - Unknown id for Type: xyz</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <f>_xll.clGetInterestRate2("Current2")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <f>_xll.clGetInterestRate2("SAVINGS2")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="e">
-        <f>_xll.clGetInterestRate2("xyz")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D19" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(C19)</f>
-        <v>clGetInterestRate2 - Unknown id for Type: xyz</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="str">
-        <f>_xll.clFunc1()</f>
-        <v>ComplexLib::func1()</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="str">
-        <f>_xll.clBase("base")</f>
-        <v>base#0000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="e">
-        <f>_xll.clBaseF("base")</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="str">
-        <f>_xll.clDerived("derived")</f>
-        <v>derived#0000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="e">
-        <f>_xll.clBaseF("derived")</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="e">
-        <f>_xll.clDerivedF("derived")</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="e">
-        <f>_xll.clDerivedF("base")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D28" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(C28)</f>
-        <v>clDerivedF - ObjectHandler error: attempt to retrieve object with unknown ID 'base'</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="str">
-        <f>_xll.clC("c")</f>
-        <v>c#0000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="str">
-        <f>_xll.clAF0("c")</f>
-        <v>ComplexLib::C::f0()</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="e">
-        <f>_xll.clBF1("c")</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="str">
-        <f>_xll.clTest("my_test", 42)</f>
-        <v>my_test#0000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <f>_xll.clTestGetInput("my_test")</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D36" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C36)</f>
+        <v>clTimeString - Unknown id for Type: WAZOO</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="str">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="str">
         <f>_xll.clTest2("my_test2")</f>
-        <v>my_test2#0000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="str">
+        <v>my_test2#0001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="str">
         <f>_xll.clTest2F("my_test2")</f>
         <v>ComplexLib::Test2::f()</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="str">
-        <f>_xll.clDoubleToString(123.456)</f>
-        <v>d=123.456</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="str">
-        <f>_xll.clLongDoubleToString(123.456)</f>
-        <v>d=123.456</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
+++ b/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>coercions</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>typedefs</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="str">
-        <f>_xll.clBaseF("base")</f>
+        <f>_xll.clBaseF(C7)</f>
         <v>ComplexLib::Base::f()</v>
       </c>
     </row>
@@ -469,13 +475,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="str">
-        <f>_xll.clBaseF("derived")</f>
+        <f>_xll.clBaseF(C9)</f>
         <v>ComplexLib::Derived::f()</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="str">
-        <f>_xll.clDerivedF("derived")</f>
+        <f>_xll.clDerivedF(C9)</f>
         <v>ComplexLib::Derived::f()</v>
       </c>
     </row>
@@ -484,12 +490,12 @@
         <v>13</v>
       </c>
       <c r="C12" t="e">
-        <f>_xll.clDerivedF("base")</f>
+        <f>_xll.clDerivedF(C7)</f>
         <v>#NUM!</v>
       </c>
       <c r="D12" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(C12)</f>
-        <v>clDerivedF - Error retrieving object with id 'base' - unable to convert reference to type 'class ComplexLibAddin::Derived' found instead 'class ComplexLibAddin::Base'</v>
+        <v>clDerivedF - Error retrieving object with id 'base#0001' - unable to convert reference to type 'class ComplexLibAddin::Derived' found instead 'class ComplexLibAddin::Base'</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,13 +506,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
-        <f>_xll.clAF0("c")</f>
+        <f>_xll.clAF0(C13)</f>
         <v>ComplexLib::C::f0()</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="str">
-        <f>_xll.clBF1("c")</f>
+        <f>_xll.clBF1(C13)</f>
         <v>ComplexLib::C::f1()</v>
       </c>
     </row>
@@ -535,13 +541,20 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="str">
         <f>_xll.clShowGrade(75)</f>
-        <v>grade=F</v>
+        <v>grade=C</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="str">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="e">
         <f>_xll.clShowGrade("75")</f>
-        <v>grade=F</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="D21" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(C21)</f>
+        <v>clShowGrade - unable to convert type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' to type 'ComplexLib::Grade'</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,12 +567,18 @@
         <f>_xll.clShowGrade2(75)</f>
         <v>grade=F</v>
       </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="str">
         <f>_xll.clShowGrade2("90")</f>
         <v>grade=F</v>
       </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -639,7 +658,7 @@
       </c>
       <c r="C33" t="str">
         <f>_xll.clTimeString("EST")</f>
-        <v>16:22</v>
+        <v>16:37</v>
       </c>
       <c r="D33" t="str">
         <f>_xll.ohRangeRetrieveError(C33)</f>
@@ -652,7 +671,7 @@
       </c>
       <c r="C34" t="str">
         <f>_xll.clTimeString("UTC")</f>
-        <v>21:22</v>
+        <v>21:37</v>
       </c>
       <c r="D34" t="str">
         <f>_xll.ohRangeRetrieveError(C34)</f>
@@ -665,7 +684,7 @@
       </c>
       <c r="C35" t="str">
         <f>_xll.clTimeString("CST")</f>
-        <v>05:22</v>
+        <v>05:37</v>
       </c>
       <c r="D35" t="str">
         <f>_xll.ohRangeRetrieveError(C35)</f>
@@ -698,7 +717,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" t="str">
-        <f>_xll.clTest2F("my_test2")</f>
+        <f>_xll.clTest2F(C38)</f>
         <v>ComplexLib::Test2::f()</v>
       </c>
     </row>

--- a/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
+++ b/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
@@ -565,7 +565,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" t="str">
         <f>_xll.clShowGrade2(75)</f>
-        <v>grade=F</v>
+        <v>grade=C</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -574,7 +574,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="str">
         <f>_xll.clShowGrade2("90")</f>
-        <v>grade=F</v>
+        <v>grade=B</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -658,7 +658,7 @@
       </c>
       <c r="C33" t="str">
         <f>_xll.clTimeString("EST")</f>
-        <v>16:37</v>
+        <v>17:14</v>
       </c>
       <c r="D33" t="str">
         <f>_xll.ohRangeRetrieveError(C33)</f>
@@ -671,7 +671,7 @@
       </c>
       <c r="C34" t="str">
         <f>_xll.clTimeString("UTC")</f>
-        <v>21:37</v>
+        <v>22:14</v>
       </c>
       <c r="D34" t="str">
         <f>_xll.ohRangeRetrieveError(C34)</f>
@@ -684,7 +684,7 @@
       </c>
       <c r="C35" t="str">
         <f>_xll.clTimeString("CST")</f>
-        <v>05:37</v>
+        <v>06:14</v>
       </c>
       <c r="D35" t="str">
         <f>_xll.ohRangeRetrieveError(C35)</f>

--- a/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
+++ b/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
@@ -79,6 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,13 +444,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="str">
-        <f>_xll.clTest("my_test", 42)</f>
-        <v>my_test#0001</v>
+        <f>_xll.clTest(,"my_test", ,,42)</f>
+        <v>my_test#0000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5">
-        <f>_xll.clTestGetInput("my_test")</f>
+        <f>_xll.clTestGetInput(,"my_test")</f>
         <v>42</v>
       </c>
     </row>
@@ -457,31 +461,31 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="str">
-        <f>_xll.clBase("base")</f>
-        <v>base#0001</v>
+        <f>_xll.clBase(,"base")</f>
+        <v>base#0000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="str">
-        <f>_xll.clBaseF(C7)</f>
+        <f>_xll.clBaseF(,C7)</f>
         <v>ComplexLib::Base::f()</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="str">
-        <f>_xll.clDerived("derived")</f>
-        <v>derived#0001</v>
+        <f>_xll.clDerived(,"derived")</f>
+        <v>derived#0000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="str">
-        <f>_xll.clBaseF(C9)</f>
+        <f>_xll.clBaseF(,C9)</f>
         <v>ComplexLib::Derived::f()</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="str">
-        <f>_xll.clDerivedF(C9)</f>
+        <f>_xll.clDerivedF(,C9)</f>
         <v>ComplexLib::Derived::f()</v>
       </c>
     </row>
@@ -490,29 +494,29 @@
         <v>13</v>
       </c>
       <c r="C12" t="e">
-        <f>_xll.clDerivedF(C7)</f>
+        <f>_xll.clDerivedF(,C7)</f>
         <v>#NUM!</v>
       </c>
       <c r="D12" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(C12)</f>
-        <v>clDerivedF - Error retrieving object with id 'base#0001' - unable to convert reference to type 'class ComplexLibAddin::Derived' found instead 'class ComplexLibAddin::Base'</v>
+        <v>clDerivedF - Error retrieving object with id 'base#0000' - unable to convert reference to type 'class ComplexLibAddin::Derived' found instead 'class ComplexLibAddin::Base'</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="str">
-        <f>_xll.clC("c")</f>
-        <v>c#0001</v>
+        <f>_xll.clC(,"c")</f>
+        <v>c#0000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
-        <f>_xll.clAF0(C13)</f>
+        <f>_xll.clAF0(,C13)</f>
         <v>ComplexLib::C::f0()</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="str">
-        <f>_xll.clBF1(C13)</f>
+        <f>_xll.clBF1(,C13)</f>
         <v>ComplexLib::C::f1()</v>
       </c>
     </row>
@@ -523,13 +527,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="str">
-        <f>_xll.clDoubleToString(123.456)</f>
+        <f>_xll.clDoubleToString(,123.456)</f>
         <v>d=123.456</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="str">
-        <f>_xll.clLongDoubleToString(123.456)</f>
+        <f>_xll.clLongDoubleToString(,123.456)</f>
         <v>d=123.456</v>
       </c>
     </row>
@@ -540,7 +544,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="str">
-        <f>_xll.clShowGrade(75)</f>
+        <f>_xll.clShowGrade(,75)</f>
         <v>grade=C</v>
       </c>
     </row>
@@ -549,7 +553,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="e">
-        <f>_xll.clShowGrade("75")</f>
+        <f>_xll.clShowGrade(,"75")</f>
         <v>#NUM!</v>
       </c>
       <c r="D21" t="str">
@@ -564,7 +568,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" t="str">
-        <f>_xll.clShowGrade2(75)</f>
+        <f>_xll.clShowGrade2(,75)</f>
         <v>grade=C</v>
       </c>
       <c r="D23" t="s">
@@ -573,7 +577,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="str">
-        <f>_xll.clShowGrade2("90")</f>
+        <f>_xll.clShowGrade2(,"90")</f>
         <v>grade=B</v>
       </c>
       <c r="D24" t="s">
@@ -590,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="C26">
-        <f>_xll.clGetInterestRate("Current")</f>
+        <f>_xll.clGetInterestRate(,"Current")</f>
         <v>0</v>
       </c>
     </row>
@@ -599,7 +603,7 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <f>_xll.clGetInterestRate("SAVINGS")</f>
+        <f>_xll.clGetInterestRate(,"SAVINGS")</f>
         <v>3</v>
       </c>
     </row>
@@ -608,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="e">
-        <f>_xll.clGetInterestRate("xyz")</f>
+        <f>_xll.clGetInterestRate(,"xyz")</f>
         <v>#NUM!</v>
       </c>
       <c r="D28" t="str">
@@ -621,7 +625,7 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <f>_xll.clGetInterestRate2("Current2")</f>
+        <f>_xll.clGetInterestRate2(,"Current2")</f>
         <v>0</v>
       </c>
     </row>
@@ -630,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <f>_xll.clGetInterestRate2("SAVINGS2")</f>
+        <f>_xll.clGetInterestRate2(,"SAVINGS2")</f>
         <v>3</v>
       </c>
     </row>
@@ -639,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="e">
-        <f>_xll.clGetInterestRate2("xyz")</f>
+        <f>_xll.clGetInterestRate2(,"xyz")</f>
         <v>#NUM!</v>
       </c>
       <c r="D31" t="str">
@@ -656,9 +660,9 @@
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" t="str">
-        <f>_xll.clTimeString("EST")</f>
-        <v>17:14</v>
+      <c r="C33" s="1" t="str">
+        <f>_xll.clTimeString(,"EST")</f>
+        <v>02:04</v>
       </c>
       <c r="D33" t="str">
         <f>_xll.ohRangeRetrieveError(C33)</f>
@@ -670,8 +674,8 @@
         <v>4</v>
       </c>
       <c r="C34" t="str">
-        <f>_xll.clTimeString("UTC")</f>
-        <v>22:14</v>
+        <f>_xll.clTimeString(,"UTC")</f>
+        <v>07:04</v>
       </c>
       <c r="D34" t="str">
         <f>_xll.ohRangeRetrieveError(C34)</f>
@@ -683,8 +687,8 @@
         <v>5</v>
       </c>
       <c r="C35" t="str">
-        <f>_xll.clTimeString("CST")</f>
-        <v>06:14</v>
+        <f>_xll.clTimeString(,"CST")</f>
+        <v>15:04</v>
       </c>
       <c r="D35" t="str">
         <f>_xll.ohRangeRetrieveError(C35)</f>
@@ -696,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="e">
-        <f>_xll.clTimeString("WAZOO")</f>
+        <f>_xll.clTimeString(,"WAZOO")</f>
         <v>#NUM!</v>
       </c>
       <c r="D36" t="str">
@@ -711,18 +715,19 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" t="str">
-        <f>_xll.clTest2("my_test2")</f>
-        <v>my_test2#0001</v>
+        <f>_xll.clTest2(,"my_test2")</f>
+        <v>my_test2#0000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" t="str">
-        <f>_xll.clTest2F(C38)</f>
-        <v>ComplexLib::Test2::f()</v>
+        <f>_xll.clTest2F(,C38)</f>
+        <v>ComplexLibAddin::Test2::f() ComplexLib::Test2::f()</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
+++ b/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
@@ -432,9 +432,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" t="str">
-        <f>_xll.clFunc1()</f>
-        <v>ComplexLib::func1()</v>
+      <c r="C2" t="e">
+        <f ca="1">_xll.clFunc1()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -443,15 +443,15 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="str">
-        <f>_xll.clTest(,"my_test", ,,42)</f>
-        <v>my_test#0000</v>
+      <c r="C4" t="e">
+        <f ca="1">_xll.clTest(,"my_test", ,,42)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <f>_xll.clTestGetInput(,"my_test")</f>
-        <v>42</v>
+      <c r="C5" t="e">
+        <f ca="1">_xll.clTestGetInput(,"my_test")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -460,33 +460,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="str">
-        <f>_xll.clBase(,"base")</f>
-        <v>base#0000</v>
+      <c r="C7" t="e">
+        <f ca="1">_xll.clBase(,"base")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="str">
-        <f>_xll.clBaseF(,C7)</f>
-        <v>ComplexLib::Base::f()</v>
+      <c r="C8" t="e">
+        <f ca="1">_xll.clBaseF(,C7)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="str">
-        <f>_xll.clDerived(,"derived")</f>
-        <v>derived#0000</v>
+      <c r="C9" t="e">
+        <f ca="1">_xll.clDerived(,"derived")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="str">
-        <f>_xll.clBaseF(,C9)</f>
-        <v>ComplexLib::Derived::f()</v>
+      <c r="C10" t="e">
+        <f ca="1">_xll.clBaseF(,C9)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="str">
-        <f>_xll.clDerivedF(,C9)</f>
-        <v>ComplexLib::Derived::f()</v>
+      <c r="C11" t="e">
+        <f ca="1">_xll.clDerivedF(,C9)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,30 +494,30 @@
         <v>13</v>
       </c>
       <c r="C12" t="e">
-        <f>_xll.clDerivedF(,C7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D12" t="str">
+        <f ca="1">_xll.clDerivedF(,C7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C12)</f>
-        <v>clDerivedF - Error retrieving object with id 'base#0000' - unable to convert reference to type 'class ComplexLibAddin::Derived' found instead 'class ComplexLibAddin::Base'</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="str">
-        <f>_xll.clC(,"c")</f>
-        <v>c#0000</v>
+      <c r="C13" t="e">
+        <f ca="1">_xll.clC(,"c")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="str">
-        <f>_xll.clAF0(,C13)</f>
-        <v>ComplexLib::C::f0()</v>
+      <c r="C14" t="e">
+        <f ca="1">_xll.clAF0(,C13)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="str">
-        <f>_xll.clBF1(,C13)</f>
-        <v>ComplexLib::C::f1()</v>
+      <c r="C15" t="e">
+        <f ca="1">_xll.clBF1(,C13)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -526,15 +526,15 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="str">
-        <f>_xll.clDoubleToString(,123.456)</f>
-        <v>d=123.456</v>
+      <c r="C17" t="e">
+        <f ca="1">_xll.clDoubleToString(,123.456)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="str">
-        <f>_xll.clLongDoubleToString(,123.456)</f>
-        <v>d=123.456</v>
+      <c r="C18" t="e">
+        <f ca="1">_xll.clLongDoubleToString(,123.456)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -543,9 +543,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="str">
-        <f>_xll.clShowGrade(,75)</f>
-        <v>grade=C</v>
+      <c r="C20" t="e">
+        <f ca="1">_xll.clShowGrade(,75)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,12 +553,12 @@
         <v>13</v>
       </c>
       <c r="C21" t="e">
-        <f>_xll.clShowGrade(,"75")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D21" t="str">
+        <f ca="1">_xll.clShowGrade(,"75")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C21)</f>
-        <v>clShowGrade - unable to convert type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' to type 'ComplexLib::Grade'</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,18 +567,18 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="str">
-        <f>_xll.clShowGrade2(,75)</f>
-        <v>grade=C</v>
+      <c r="C23" t="e">
+        <f ca="1">_xll.clShowGrade2(,75)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="str">
-        <f>_xll.clShowGrade2(,"90")</f>
-        <v>grade=B</v>
+      <c r="C24" t="e">
+        <f ca="1">_xll.clShowGrade2(,"90")</f>
+        <v>#NAME?</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -593,18 +593,18 @@
       <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C26">
-        <f>_xll.clGetInterestRate(,"Current")</f>
-        <v>0</v>
+      <c r="C26" t="e">
+        <f ca="1">_xll.clGetInterestRate(,"Current")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
-        <f>_xll.clGetInterestRate(,"SAVINGS")</f>
-        <v>3</v>
+      <c r="C27" t="e">
+        <f ca="1">_xll.clGetInterestRate(,"SAVINGS")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,30 +612,30 @@
         <v>10</v>
       </c>
       <c r="C28" t="e">
-        <f>_xll.clGetInterestRate(,"xyz")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D28" t="str">
+        <f ca="1">_xll.clGetInterestRate(,"xyz")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D28" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C28)</f>
-        <v>clGetInterestRate - Unknown id for Type: xyz</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C29">
-        <f>_xll.clGetInterestRate2(,"Current2")</f>
-        <v>0</v>
+      <c r="C29" t="e">
+        <f ca="1">_xll.clGetInterestRate2(,"Current2")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
-        <f>_xll.clGetInterestRate2(,"SAVINGS2")</f>
-        <v>3</v>
+      <c r="C30" t="e">
+        <f ca="1">_xll.clGetInterestRate2(,"SAVINGS2")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,12 +643,12 @@
         <v>10</v>
       </c>
       <c r="C31" t="e">
-        <f>_xll.clGetInterestRate2(,"xyz")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D31" t="str">
+        <f ca="1">_xll.clGetInterestRate2(,"xyz")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D31" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C31)</f>
-        <v>clGetInterestRate2 - Unknown id for Type: xyz</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,39 +660,39 @@
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="1" t="str">
-        <f>_xll.clTimeString(,"EST")</f>
-        <v>02:04</v>
-      </c>
-      <c r="D33" t="str">
-        <f>_xll.ohRangeRetrieveError(C33)</f>
-        <v/>
+      <c r="C33" s="1" t="e">
+        <f ca="1">_xll.clTimeString(,"EST")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D33" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(C33)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" t="str">
-        <f>_xll.clTimeString(,"UTC")</f>
-        <v>07:04</v>
-      </c>
-      <c r="D34" t="str">
-        <f>_xll.ohRangeRetrieveError(C34)</f>
-        <v/>
+      <c r="C34" t="e">
+        <f ca="1">_xll.clTimeString(,"UTC")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D34" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(C34)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35" t="str">
-        <f>_xll.clTimeString(,"CST")</f>
-        <v>15:04</v>
-      </c>
-      <c r="D35" t="str">
-        <f>_xll.ohRangeRetrieveError(C35)</f>
-        <v/>
+      <c r="C35" t="e">
+        <f ca="1">_xll.clTimeString(,"CST")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D35" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(C35)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,12 +700,12 @@
         <v>6</v>
       </c>
       <c r="C36" t="e">
-        <f>_xll.clTimeString(,"WAZOO")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D36" t="str">
+        <f ca="1">_xll.clTimeString(,"WAZOO")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D36" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C36)</f>
-        <v>clTimeString - Unknown id for Type: WAZOO</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,15 +714,15 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="str">
-        <f>_xll.clTest2(,"my_test2")</f>
-        <v>my_test2#0000</v>
+      <c r="C38" t="e">
+        <f ca="1">_xll.clTest2(,"my_test2")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="str">
-        <f>_xll.clTest2F(,C38)</f>
-        <v>ComplexLibAddin::Test2::f() ComplexLib::Test2::f()</v>
+      <c r="C39" t="e">
+        <f ca="1">_xll.clTest2F(,C38)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
+++ b/Examples/reposit/complex/ComplexLibXL/Workbooks/AddinXl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>coercions</t>
   </si>
@@ -73,6 +73,54 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>multiple inheritance:</t>
+  </si>
+  <si>
+    <t>create a FooBar</t>
+  </si>
+  <si>
+    <t>use it as a Foo</t>
+  </si>
+  <si>
+    <t>use it as a Bar</t>
+  </si>
+  <si>
+    <t>diamond inheritance:</t>
+  </si>
+  <si>
+    <t>create a Foo2</t>
+  </si>
+  <si>
+    <t>create a Bar2</t>
+  </si>
+  <si>
+    <t>create a FooBar2</t>
+  </si>
+  <si>
+    <t>use foo2 as a Foo2</t>
+  </si>
+  <si>
+    <t>use foobar2 as a Foo2</t>
+  </si>
+  <si>
+    <t>use bar2 as a Bar2</t>
+  </si>
+  <si>
+    <t>use foobar2 as a Bar2</t>
+  </si>
+  <si>
+    <t>call Foo2::f() on foo2</t>
+  </si>
+  <si>
+    <t>call Foo2::f() on foobar2</t>
+  </si>
+  <si>
+    <t>call Bar2::f() on bar2</t>
+  </si>
+  <si>
+    <t>call Bar2::f() on foobar2</t>
   </si>
 </sst>
 </file>
@@ -415,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,6 +770,142 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" t="e">
         <f ca="1">_xll.clTest2F(,C38)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="e">
+        <f ca="1">_xll.clFooBar(,"foobar")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="e">
+        <f ca="1">_xll.clFunctionUsingFoo(,C41)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="e">
+        <f ca="1">_xll.clFunctionUsingBar(,C41)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="e">
+        <f ca="1">_xll.clFoo2(,"foo2")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="e">
+        <f ca="1">_xll.clBar2(,"bar2")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="e">
+        <f ca="1">_xll.clFooBar2(,"foobar2")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="e">
+        <f ca="1">_xll.clFoo2F(,C45)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="e">
+        <f ca="1">_xll.clFoo2F(,C47)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="e">
+        <f ca="1">_xll.clBar2F(,C46)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="e">
+        <f ca="1">_xll.clBar2F(,C47)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="e">
+        <f ca="1">_xll.clFunctionUsingFoo2(,C45)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="e">
+        <f ca="1">_xll.clFunctionUsingFoo2(,C47)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="e">
+        <f ca="1">_xll.clFunctionUsingBar2(,C46)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="e">
+        <f ca="1">_xll.clFunctionUsingBar2(,C47)</f>
         <v>#NAME?</v>
       </c>
     </row>
